--- a/stcshop/doc/01. 산출물 템플릿/005_업무기능분해도_v1.0.xlsx
+++ b/stcshop/doc/01. 산출물 템플릿/005_업무기능분해도_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STCUSER\git\stcshop\stcshop\doc\01. 산출물 템플릿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468DEC04-E2AE-4605-8276-ED16E228B744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748DDE38-8326-4A5D-A90C-8883ED14F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1980" windowWidth="16932" windowHeight="9996" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6084" yWindow="1968" windowWidth="16932" windowHeight="9996" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="17" r:id="rId1"/>
@@ -3979,9 +3979,9 @@
   <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3984375" defaultRowHeight="17.399999999999999"/>

--- a/stcshop/doc/01. 산출물 템플릿/005_업무기능분해도_v1.0.xlsx
+++ b/stcshop/doc/01. 산출물 템플릿/005_업무기능분해도_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STCUSER\git\stcshop\stcshop\doc\01. 산출물 템플릿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82855FDA-4019-4666-B82A-C5E4A83C462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27A0E92-E6EA-4BBB-BE84-D2CCCB373AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18135" yWindow="5445" windowWidth="16935" windowHeight="9990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계정생성 가입, SNS연동 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쇼핑트렌드 분석 포털</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쇼핑트렌드 분석 포털의 계정으로 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PD-STAS-0100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,6 +379,14 @@
   </si>
   <si>
     <t>장준근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정생성 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑트렌드 분석 포털의 계정으로 로그인, 외부 플랫폼 인증로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="6" spans="2:14" ht="27.6">
       <c r="B6" s="55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -1818,7 +1818,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="3"/>
@@ -1989,9 +1989,9 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3984375" defaultRowHeight="17.399999999999999"/>
@@ -2039,14 +2039,14 @@
     </row>
     <row r="2" spans="1:9" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
       <c r="F2" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="51" t="s">
@@ -2063,7 +2063,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="29" t="s">
@@ -2080,7 +2080,7 @@
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="29" t="s">
@@ -2091,13 +2091,13 @@
     <row r="5" spans="1:9" s="24" customFormat="1" ht="15.6">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="29" t="s">
@@ -2109,15 +2109,15 @@
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>63</v>
@@ -2128,15 +2128,15 @@
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>63</v>
@@ -2146,7 +2146,7 @@
     <row r="8" spans="1:9" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -2162,12 +2162,12 @@
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
       <c r="F9" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="29" t="s">
@@ -2179,12 +2179,12 @@
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="29" t="s">
@@ -2195,7 +2195,7 @@
     <row r="11" spans="1:9" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -2211,12 +2211,12 @@
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="29" t="s">
@@ -2227,7 +2227,7 @@
     <row r="13" spans="1:9" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -2241,12 +2241,12 @@
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="29"/>
@@ -2256,12 +2256,12 @@
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="29"/>
@@ -2270,14 +2270,14 @@
     <row r="16" spans="1:9" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="42"/>
@@ -2285,14 +2285,14 @@
     <row r="17" spans="1:9" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="42"/>
@@ -2322,7 +2322,6 @@
     <row r="20" spans="1:9" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
